--- a/data/fpo_preprocessed/tha_budget_disbursement.xlsx
+++ b/data/fpo_preprocessed/tha_budget_disbursement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phata\Documents\GitHub\econvis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phata\Documents\GitHub\econvis\data\fpo_preprocessed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B9B926-20A5-427D-A2AE-16C97D56DE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186BF6CA-A415-4DD0-8FD1-3CBFB767CACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D217"/>
+  <dimension ref="A1:D208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="D205" sqref="D194:D205"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="M207" sqref="M207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3289,51 +3289,6 @@
         <v>21191</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="1">
-        <v>44927</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="1">
-        <v>44958</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="1">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="1">
-        <v>45017</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="1">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
-        <v>45078</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="1">
-        <v>45108</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="1">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="1">
-        <v>45170</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
